--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_252.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_252.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32123-d247035-Reviews-Extended_Stay_America_Los_Angeles_Burbank_Airport-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>231</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Burbank-Airport.h879698.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_252.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_252.xlsx
@@ -4326,7 +4326,7 @@
         <v>43510</v>
       </c>
       <c r="B2" t="n">
-        <v>146237</v>
+        <v>177565</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4391,7 +4391,7 @@
         <v>43510</v>
       </c>
       <c r="B3" t="n">
-        <v>146238</v>
+        <v>177566</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -4462,7 +4462,7 @@
         <v>43510</v>
       </c>
       <c r="B4" t="n">
-        <v>146239</v>
+        <v>177567</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -4537,7 +4537,7 @@
         <v>43510</v>
       </c>
       <c r="B5" t="n">
-        <v>146240</v>
+        <v>177568</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -4687,7 +4687,7 @@
         <v>43510</v>
       </c>
       <c r="B7" t="n">
-        <v>146241</v>
+        <v>177569</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -4837,7 +4837,7 @@
         <v>43510</v>
       </c>
       <c r="B9" t="n">
-        <v>146242</v>
+        <v>177570</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -4912,7 +4912,7 @@
         <v>43510</v>
       </c>
       <c r="B10" t="n">
-        <v>146243</v>
+        <v>177571</v>
       </c>
       <c r="C10" t="s">
         <v>127</v>
@@ -5046,7 +5046,7 @@
         <v>43510</v>
       </c>
       <c r="B12" t="n">
-        <v>146244</v>
+        <v>177572</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
@@ -5121,7 +5121,7 @@
         <v>43510</v>
       </c>
       <c r="B13" t="n">
-        <v>146245</v>
+        <v>177573</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -5196,7 +5196,7 @@
         <v>43510</v>
       </c>
       <c r="B14" t="n">
-        <v>146246</v>
+        <v>177574</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -5267,7 +5267,7 @@
         <v>43510</v>
       </c>
       <c r="B15" t="n">
-        <v>146247</v>
+        <v>177575</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
@@ -5342,7 +5342,7 @@
         <v>43510</v>
       </c>
       <c r="B16" t="n">
-        <v>146248</v>
+        <v>177576</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -5407,7 +5407,7 @@
         <v>43510</v>
       </c>
       <c r="B17" t="n">
-        <v>146249</v>
+        <v>177577</v>
       </c>
       <c r="C17" t="s">
         <v>193</v>
@@ -5482,7 +5482,7 @@
         <v>43510</v>
       </c>
       <c r="B18" t="n">
-        <v>146250</v>
+        <v>177578</v>
       </c>
       <c r="C18" t="s">
         <v>203</v>
@@ -5547,7 +5547,7 @@
         <v>43510</v>
       </c>
       <c r="B19" t="n">
-        <v>146251</v>
+        <v>177579</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -5622,7 +5622,7 @@
         <v>43510</v>
       </c>
       <c r="B20" t="n">
-        <v>146252</v>
+        <v>177580</v>
       </c>
       <c r="C20" t="s">
         <v>219</v>
@@ -5697,7 +5697,7 @@
         <v>43510</v>
       </c>
       <c r="B21" t="n">
-        <v>146253</v>
+        <v>177581</v>
       </c>
       <c r="C21" t="s">
         <v>228</v>
@@ -5772,7 +5772,7 @@
         <v>43510</v>
       </c>
       <c r="B22" t="n">
-        <v>146254</v>
+        <v>177582</v>
       </c>
       <c r="C22" t="s">
         <v>234</v>
@@ -5847,7 +5847,7 @@
         <v>43510</v>
       </c>
       <c r="B23" t="n">
-        <v>146255</v>
+        <v>177583</v>
       </c>
       <c r="C23" t="s">
         <v>240</v>
@@ -5922,7 +5922,7 @@
         <v>43510</v>
       </c>
       <c r="B24" t="n">
-        <v>146256</v>
+        <v>177584</v>
       </c>
       <c r="C24" t="s">
         <v>249</v>
@@ -5997,7 +5997,7 @@
         <v>43510</v>
       </c>
       <c r="B25" t="n">
-        <v>146257</v>
+        <v>177585</v>
       </c>
       <c r="C25" t="s">
         <v>259</v>
@@ -6058,7 +6058,7 @@
         <v>43510</v>
       </c>
       <c r="B26" t="n">
-        <v>146258</v>
+        <v>177586</v>
       </c>
       <c r="C26" t="s">
         <v>268</v>
@@ -6198,7 +6198,7 @@
         <v>43510</v>
       </c>
       <c r="B28" t="n">
-        <v>146259</v>
+        <v>177587</v>
       </c>
       <c r="C28" t="s">
         <v>287</v>
@@ -6267,7 +6267,7 @@
         <v>43510</v>
       </c>
       <c r="B29" t="n">
-        <v>146260</v>
+        <v>177588</v>
       </c>
       <c r="C29" t="s">
         <v>296</v>
@@ -6342,7 +6342,7 @@
         <v>43510</v>
       </c>
       <c r="B30" t="n">
-        <v>146261</v>
+        <v>177589</v>
       </c>
       <c r="C30" t="s">
         <v>305</v>
@@ -6417,7 +6417,7 @@
         <v>43510</v>
       </c>
       <c r="B31" t="n">
-        <v>146262</v>
+        <v>177590</v>
       </c>
       <c r="C31" t="s">
         <v>314</v>
@@ -6492,7 +6492,7 @@
         <v>43510</v>
       </c>
       <c r="B32" t="n">
-        <v>146263</v>
+        <v>177591</v>
       </c>
       <c r="C32" t="s">
         <v>323</v>
@@ -6563,7 +6563,7 @@
         <v>43510</v>
       </c>
       <c r="B33" t="n">
-        <v>146264</v>
+        <v>177592</v>
       </c>
       <c r="C33" t="s">
         <v>333</v>
@@ -6634,7 +6634,7 @@
         <v>43510</v>
       </c>
       <c r="B34" t="n">
-        <v>146265</v>
+        <v>177593</v>
       </c>
       <c r="C34" t="s">
         <v>342</v>
@@ -6764,7 +6764,7 @@
         <v>43510</v>
       </c>
       <c r="B36" t="n">
-        <v>146266</v>
+        <v>177594</v>
       </c>
       <c r="C36" t="s">
         <v>358</v>
@@ -6835,7 +6835,7 @@
         <v>43510</v>
       </c>
       <c r="B37" t="n">
-        <v>146267</v>
+        <v>177595</v>
       </c>
       <c r="C37" t="s">
         <v>367</v>
@@ -6975,7 +6975,7 @@
         <v>43510</v>
       </c>
       <c r="B39" t="n">
-        <v>146268</v>
+        <v>177596</v>
       </c>
       <c r="C39" t="s">
         <v>386</v>
@@ -7046,7 +7046,7 @@
         <v>43510</v>
       </c>
       <c r="B40" t="n">
-        <v>146269</v>
+        <v>177597</v>
       </c>
       <c r="C40" t="s">
         <v>396</v>
@@ -7115,7 +7115,7 @@
         <v>43510</v>
       </c>
       <c r="B41" t="n">
-        <v>146270</v>
+        <v>177598</v>
       </c>
       <c r="C41" t="s">
         <v>406</v>
@@ -7180,7 +7180,7 @@
         <v>43510</v>
       </c>
       <c r="B42" t="n">
-        <v>146271</v>
+        <v>177599</v>
       </c>
       <c r="C42" t="s">
         <v>416</v>
@@ -7314,7 +7314,7 @@
         <v>43510</v>
       </c>
       <c r="B44" t="n">
-        <v>146272</v>
+        <v>177600</v>
       </c>
       <c r="C44" t="s">
         <v>434</v>
@@ -7379,7 +7379,7 @@
         <v>43510</v>
       </c>
       <c r="B45" t="n">
-        <v>146273</v>
+        <v>177601</v>
       </c>
       <c r="C45" t="s">
         <v>444</v>
@@ -7450,7 +7450,7 @@
         <v>43510</v>
       </c>
       <c r="B46" t="n">
-        <v>146274</v>
+        <v>177602</v>
       </c>
       <c r="C46" t="s">
         <v>453</v>
@@ -7521,7 +7521,7 @@
         <v>43510</v>
       </c>
       <c r="B47" t="n">
-        <v>146275</v>
+        <v>177603</v>
       </c>
       <c r="C47" t="s">
         <v>462</v>
@@ -7590,7 +7590,7 @@
         <v>43510</v>
       </c>
       <c r="B48" t="n">
-        <v>146276</v>
+        <v>177604</v>
       </c>
       <c r="C48" t="s">
         <v>472</v>
@@ -7661,7 +7661,7 @@
         <v>43510</v>
       </c>
       <c r="B49" t="n">
-        <v>146277</v>
+        <v>177605</v>
       </c>
       <c r="C49" t="s">
         <v>478</v>
@@ -7726,7 +7726,7 @@
         <v>43510</v>
       </c>
       <c r="B50" t="n">
-        <v>146278</v>
+        <v>177606</v>
       </c>
       <c r="C50" t="s">
         <v>488</v>
@@ -7795,7 +7795,7 @@
         <v>43510</v>
       </c>
       <c r="B51" t="n">
-        <v>146279</v>
+        <v>177607</v>
       </c>
       <c r="C51" t="s">
         <v>497</v>
@@ -7860,7 +7860,7 @@
         <v>43510</v>
       </c>
       <c r="B52" t="n">
-        <v>146280</v>
+        <v>177608</v>
       </c>
       <c r="C52" t="s">
         <v>506</v>
@@ -7929,7 +7929,7 @@
         <v>43510</v>
       </c>
       <c r="B53" t="n">
-        <v>146281</v>
+        <v>177609</v>
       </c>
       <c r="C53" t="s">
         <v>516</v>
@@ -8000,7 +8000,7 @@
         <v>43510</v>
       </c>
       <c r="B54" t="n">
-        <v>146282</v>
+        <v>177610</v>
       </c>
       <c r="C54" t="s">
         <v>526</v>
@@ -8209,7 +8209,7 @@
         <v>43510</v>
       </c>
       <c r="B57" t="n">
-        <v>146283</v>
+        <v>177611</v>
       </c>
       <c r="C57" t="s">
         <v>554</v>
@@ -8274,7 +8274,7 @@
         <v>43510</v>
       </c>
       <c r="B58" t="n">
-        <v>146284</v>
+        <v>177612</v>
       </c>
       <c r="C58" t="s">
         <v>561</v>
@@ -8339,7 +8339,7 @@
         <v>43510</v>
       </c>
       <c r="B59" t="n">
-        <v>146285</v>
+        <v>177613</v>
       </c>
       <c r="C59" t="s">
         <v>569</v>
@@ -8404,7 +8404,7 @@
         <v>43510</v>
       </c>
       <c r="B60" t="n">
-        <v>146286</v>
+        <v>177614</v>
       </c>
       <c r="C60" t="s">
         <v>579</v>
@@ -8603,7 +8603,7 @@
         <v>43510</v>
       </c>
       <c r="B63" t="n">
-        <v>146287</v>
+        <v>177615</v>
       </c>
       <c r="C63" t="s">
         <v>599</v>
@@ -8668,7 +8668,7 @@
         <v>43510</v>
       </c>
       <c r="B64" t="n">
-        <v>146288</v>
+        <v>177616</v>
       </c>
       <c r="C64" t="s">
         <v>608</v>
@@ -8739,7 +8739,7 @@
         <v>43510</v>
       </c>
       <c r="B65" t="n">
-        <v>146289</v>
+        <v>177617</v>
       </c>
       <c r="C65" t="s">
         <v>618</v>
@@ -8865,7 +8865,7 @@
         <v>43510</v>
       </c>
       <c r="B67" t="n">
-        <v>146290</v>
+        <v>177618</v>
       </c>
       <c r="C67" t="s">
         <v>634</v>
@@ -8932,7 +8932,7 @@
         <v>43510</v>
       </c>
       <c r="B68" t="n">
-        <v>146291</v>
+        <v>177619</v>
       </c>
       <c r="C68" t="s">
         <v>641</v>
@@ -9001,7 +9001,7 @@
         <v>43510</v>
       </c>
       <c r="B69" t="n">
-        <v>146292</v>
+        <v>177620</v>
       </c>
       <c r="C69" t="s">
         <v>651</v>
@@ -9482,7 +9482,7 @@
         <v>43510</v>
       </c>
       <c r="B76" t="n">
-        <v>146293</v>
+        <v>177621</v>
       </c>
       <c r="C76" t="s">
         <v>717</v>
@@ -9553,7 +9553,7 @@
         <v>43510</v>
       </c>
       <c r="B77" t="n">
-        <v>146294</v>
+        <v>177622</v>
       </c>
       <c r="C77" t="s">
         <v>726</v>
@@ -9624,7 +9624,7 @@
         <v>43510</v>
       </c>
       <c r="B78" t="n">
-        <v>146295</v>
+        <v>177623</v>
       </c>
       <c r="C78" t="s">
         <v>735</v>
@@ -9691,7 +9691,7 @@
         <v>43510</v>
       </c>
       <c r="B79" t="n">
-        <v>146296</v>
+        <v>177624</v>
       </c>
       <c r="C79" t="s">
         <v>742</v>
@@ -9756,7 +9756,7 @@
         <v>43510</v>
       </c>
       <c r="B80" t="n">
-        <v>146297</v>
+        <v>177625</v>
       </c>
       <c r="C80" t="s">
         <v>752</v>
@@ -9827,7 +9827,7 @@
         <v>43510</v>
       </c>
       <c r="B81" t="n">
-        <v>146298</v>
+        <v>177626</v>
       </c>
       <c r="C81" t="s">
         <v>761</v>
@@ -9896,7 +9896,7 @@
         <v>43510</v>
       </c>
       <c r="B82" t="n">
-        <v>146299</v>
+        <v>177627</v>
       </c>
       <c r="C82" t="s">
         <v>770</v>
@@ -9967,7 +9967,7 @@
         <v>43510</v>
       </c>
       <c r="B83" t="n">
-        <v>146300</v>
+        <v>177628</v>
       </c>
       <c r="C83" t="s">
         <v>780</v>
@@ -10038,7 +10038,7 @@
         <v>43510</v>
       </c>
       <c r="B84" t="n">
-        <v>146301</v>
+        <v>177629</v>
       </c>
       <c r="C84" t="s">
         <v>789</v>
@@ -10105,7 +10105,7 @@
         <v>43510</v>
       </c>
       <c r="B85" t="n">
-        <v>146302</v>
+        <v>177630</v>
       </c>
       <c r="C85" t="s">
         <v>796</v>
@@ -10176,7 +10176,7 @@
         <v>43510</v>
       </c>
       <c r="B86" t="n">
-        <v>146303</v>
+        <v>177631</v>
       </c>
       <c r="C86" t="s">
         <v>806</v>
@@ -10241,7 +10241,7 @@
         <v>43510</v>
       </c>
       <c r="B87" t="n">
-        <v>146304</v>
+        <v>177632</v>
       </c>
       <c r="C87" t="s">
         <v>812</v>
@@ -10308,7 +10308,7 @@
         <v>43510</v>
       </c>
       <c r="B88" t="n">
-        <v>146305</v>
+        <v>177633</v>
       </c>
       <c r="C88" t="s">
         <v>818</v>
@@ -10379,7 +10379,7 @@
         <v>43510</v>
       </c>
       <c r="B89" t="n">
-        <v>146306</v>
+        <v>177634</v>
       </c>
       <c r="C89" t="s">
         <v>827</v>
@@ -10450,7 +10450,7 @@
         <v>43510</v>
       </c>
       <c r="B90" t="n">
-        <v>146307</v>
+        <v>177635</v>
       </c>
       <c r="C90" t="s">
         <v>836</v>
@@ -10580,7 +10580,7 @@
         <v>43510</v>
       </c>
       <c r="B92" t="n">
-        <v>146308</v>
+        <v>177636</v>
       </c>
       <c r="C92" t="s">
         <v>851</v>
@@ -10730,7 +10730,7 @@
         <v>43510</v>
       </c>
       <c r="B94" t="n">
-        <v>146309</v>
+        <v>177637</v>
       </c>
       <c r="C94" t="s">
         <v>871</v>
@@ -10801,7 +10801,7 @@
         <v>43510</v>
       </c>
       <c r="B95" t="n">
-        <v>146310</v>
+        <v>177638</v>
       </c>
       <c r="C95" t="s">
         <v>877</v>
@@ -10876,7 +10876,7 @@
         <v>43510</v>
       </c>
       <c r="B96" t="n">
-        <v>146311</v>
+        <v>177639</v>
       </c>
       <c r="C96" t="s">
         <v>886</v>
@@ -11026,7 +11026,7 @@
         <v>43510</v>
       </c>
       <c r="B98" t="n">
-        <v>146312</v>
+        <v>177640</v>
       </c>
       <c r="C98" t="s">
         <v>905</v>
@@ -11101,7 +11101,7 @@
         <v>43510</v>
       </c>
       <c r="B99" t="n">
-        <v>146313</v>
+        <v>177641</v>
       </c>
       <c r="C99" t="s">
         <v>915</v>
@@ -11172,7 +11172,7 @@
         <v>43510</v>
       </c>
       <c r="B100" t="n">
-        <v>146314</v>
+        <v>177642</v>
       </c>
       <c r="C100" t="s">
         <v>922</v>
@@ -11247,7 +11247,7 @@
         <v>43510</v>
       </c>
       <c r="B101" t="n">
-        <v>146315</v>
+        <v>177643</v>
       </c>
       <c r="C101" t="s">
         <v>928</v>
@@ -11322,7 +11322,7 @@
         <v>43510</v>
       </c>
       <c r="B102" t="n">
-        <v>146316</v>
+        <v>177644</v>
       </c>
       <c r="C102" t="s">
         <v>937</v>
@@ -11397,7 +11397,7 @@
         <v>43510</v>
       </c>
       <c r="B103" t="n">
-        <v>146317</v>
+        <v>177645</v>
       </c>
       <c r="C103" t="s">
         <v>947</v>
@@ -11462,7 +11462,7 @@
         <v>43510</v>
       </c>
       <c r="B104" t="n">
-        <v>146318</v>
+        <v>177646</v>
       </c>
       <c r="C104" t="s">
         <v>957</v>
@@ -11537,7 +11537,7 @@
         <v>43510</v>
       </c>
       <c r="B105" t="n">
-        <v>146319</v>
+        <v>177647</v>
       </c>
       <c r="C105" t="s">
         <v>966</v>
@@ -11762,7 +11762,7 @@
         <v>43510</v>
       </c>
       <c r="B108" t="n">
-        <v>146320</v>
+        <v>177648</v>
       </c>
       <c r="C108" t="s">
         <v>994</v>
@@ -11983,7 +11983,7 @@
         <v>43510</v>
       </c>
       <c r="B111" t="n">
-        <v>146321</v>
+        <v>177649</v>
       </c>
       <c r="C111" t="s">
         <v>1022</v>
@@ -12133,7 +12133,7 @@
         <v>43510</v>
       </c>
       <c r="B113" t="n">
-        <v>146322</v>
+        <v>177650</v>
       </c>
       <c r="C113" t="s">
         <v>1041</v>
@@ -12204,7 +12204,7 @@
         <v>43510</v>
       </c>
       <c r="B114" t="n">
-        <v>146323</v>
+        <v>177651</v>
       </c>
       <c r="C114" t="s">
         <v>1050</v>
@@ -12279,7 +12279,7 @@
         <v>43510</v>
       </c>
       <c r="B115" t="n">
-        <v>146324</v>
+        <v>177652</v>
       </c>
       <c r="C115" t="s">
         <v>1059</v>
@@ -12354,7 +12354,7 @@
         <v>43510</v>
       </c>
       <c r="B116" t="n">
-        <v>146325</v>
+        <v>177653</v>
       </c>
       <c r="C116" t="s">
         <v>1069</v>
@@ -12429,7 +12429,7 @@
         <v>43510</v>
       </c>
       <c r="B117" t="n">
-        <v>146326</v>
+        <v>177654</v>
       </c>
       <c r="C117" t="s">
         <v>1078</v>
@@ -12579,7 +12579,7 @@
         <v>43510</v>
       </c>
       <c r="B119" t="n">
-        <v>146327</v>
+        <v>177655</v>
       </c>
       <c r="C119" t="s">
         <v>1092</v>
@@ -12650,7 +12650,7 @@
         <v>43510</v>
       </c>
       <c r="B120" t="n">
-        <v>146328</v>
+        <v>177656</v>
       </c>
       <c r="C120" t="s">
         <v>1099</v>
@@ -12796,7 +12796,7 @@
         <v>43510</v>
       </c>
       <c r="B122" t="n">
-        <v>146329</v>
+        <v>177657</v>
       </c>
       <c r="C122" t="s">
         <v>1118</v>
@@ -12871,7 +12871,7 @@
         <v>43510</v>
       </c>
       <c r="B123" t="n">
-        <v>146330</v>
+        <v>177658</v>
       </c>
       <c r="C123" t="s">
         <v>1128</v>
@@ -12946,7 +12946,7 @@
         <v>43510</v>
       </c>
       <c r="B124" t="n">
-        <v>146331</v>
+        <v>177659</v>
       </c>
       <c r="C124" t="s">
         <v>1137</v>
@@ -13021,7 +13021,7 @@
         <v>43510</v>
       </c>
       <c r="B125" t="n">
-        <v>146332</v>
+        <v>177660</v>
       </c>
       <c r="C125" t="s">
         <v>1147</v>
@@ -13096,7 +13096,7 @@
         <v>43510</v>
       </c>
       <c r="B126" t="n">
-        <v>146333</v>
+        <v>177661</v>
       </c>
       <c r="C126" t="s">
         <v>1157</v>
@@ -13171,7 +13171,7 @@
         <v>43510</v>
       </c>
       <c r="B127" t="n">
-        <v>146334</v>
+        <v>177662</v>
       </c>
       <c r="C127" t="s">
         <v>1166</v>
@@ -13246,7 +13246,7 @@
         <v>43510</v>
       </c>
       <c r="B128" t="n">
-        <v>146335</v>
+        <v>177663</v>
       </c>
       <c r="C128" t="s">
         <v>1173</v>
@@ -13321,7 +13321,7 @@
         <v>43510</v>
       </c>
       <c r="B129" t="n">
-        <v>146336</v>
+        <v>177664</v>
       </c>
       <c r="C129" t="s">
         <v>1183</v>
@@ -13396,7 +13396,7 @@
         <v>43510</v>
       </c>
       <c r="B130" t="n">
-        <v>146337</v>
+        <v>177665</v>
       </c>
       <c r="C130" t="s">
         <v>1193</v>
@@ -13546,7 +13546,7 @@
         <v>43510</v>
       </c>
       <c r="B132" t="n">
-        <v>146338</v>
+        <v>177666</v>
       </c>
       <c r="C132" t="s">
         <v>1210</v>
@@ -13621,7 +13621,7 @@
         <v>43510</v>
       </c>
       <c r="B133" t="n">
-        <v>146339</v>
+        <v>177667</v>
       </c>
       <c r="C133" t="s">
         <v>1217</v>
@@ -13692,7 +13692,7 @@
         <v>43510</v>
       </c>
       <c r="B134" t="n">
-        <v>146340</v>
+        <v>177668</v>
       </c>
       <c r="C134" t="s">
         <v>1224</v>
@@ -13763,7 +13763,7 @@
         <v>43510</v>
       </c>
       <c r="B135" t="n">
-        <v>146341</v>
+        <v>177669</v>
       </c>
       <c r="C135" t="s">
         <v>1231</v>
@@ -13834,7 +13834,7 @@
         <v>43510</v>
       </c>
       <c r="B136" t="n">
-        <v>146342</v>
+        <v>177670</v>
       </c>
       <c r="C136" t="s">
         <v>1239</v>
